--- a/Altres/Recordatoris/Recordatoris_Defuncio.xlsx
+++ b/Altres/Recordatoris/Recordatoris_Defuncio.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\vstudio-code\repositorisArbre\DadesGenerals\Altres\Recordatoris\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AB6655DD-1DD3-4209-823E-714BE924B255}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E4BFC0-B558-4A8D-B3D9-DC7F82CB480D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB516CE0-A10E-452F-B56E-D907E3471C6D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CB516CE0-A10E-452F-B56E-D907E3471C6D}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="330">
   <si>
     <t>Nom</t>
   </si>
@@ -68,18 +68,12 @@
     <t>Antonia Trepat Gispert</t>
   </si>
   <si>
-    <t>Antonieta Sumalla Canela</t>
-  </si>
-  <si>
     <t>Antonio Mir Farre</t>
   </si>
   <si>
     <t>Asuncio Cos Mas</t>
   </si>
   <si>
-    <t>Baptista Moya Sans</t>
-  </si>
-  <si>
     <t>Benita Pardo Asens</t>
   </si>
   <si>
@@ -110,24 +104,15 @@
     <t>Eugeni Gesse Ros</t>
   </si>
   <si>
-    <t>Fe buenadicha matesanz</t>
-  </si>
-  <si>
     <t>Fidel Flaquer Fabregat</t>
   </si>
   <si>
-    <t>Fransisca Alfaro Tarrega</t>
-  </si>
-  <si>
     <t>Fransisco Garcia Martinez</t>
   </si>
   <si>
     <t>Guadalupe Sans Vidal</t>
   </si>
   <si>
-    <t>Jacinta Burgués Camarasa</t>
-  </si>
-  <si>
     <t>Jaume Balcells Cabrol</t>
   </si>
   <si>
@@ -140,33 +125,15 @@
     <t>Joan Civit Esmatges</t>
   </si>
   <si>
-    <t>Joan fusta casanovas</t>
-  </si>
-  <si>
     <t>Joan Fuste Gine</t>
   </si>
   <si>
-    <t>Joan Huget Torrents</t>
-  </si>
-  <si>
-    <t>Joan Moya Sumalla</t>
-  </si>
-  <si>
-    <t>Joaquim Bauló Piera</t>
-  </si>
-  <si>
     <t>Josep Darba Torres</t>
   </si>
   <si>
-    <t>Josep Grimau Farré</t>
-  </si>
-  <si>
     <t>Josep Maria Mora Antillach</t>
   </si>
   <si>
-    <t>josep maria moya sans</t>
-  </si>
-  <si>
     <t>Josep Maria Perello Bellmunt</t>
   </si>
   <si>
@@ -188,9 +155,6 @@
     <t>Manel Eroles Miralles</t>
   </si>
   <si>
-    <t>Maria del mar Domingo Cots</t>
-  </si>
-  <si>
     <t>Maria Mas Binefa</t>
   </si>
   <si>
@@ -200,9 +164,6 @@
     <t>Maria Paul Safont</t>
   </si>
   <si>
-    <t>Maria riera marti</t>
-  </si>
-  <si>
     <t>Maria Roige Bergada</t>
   </si>
   <si>
@@ -218,9 +179,6 @@
     <t>Merce Oliveres Condal</t>
   </si>
   <si>
-    <t>Miquel Gese Miranda</t>
-  </si>
-  <si>
     <t>Miquel Puigredon Farre</t>
   </si>
   <si>
@@ -254,18 +212,12 @@
     <t>Ramon Joval Binefa</t>
   </si>
   <si>
-    <t>Ramon Pedrós Jové</t>
-  </si>
-  <si>
     <t>Ramona Bellet Vilaplana</t>
   </si>
   <si>
     <t>Remei Mauri Sero</t>
   </si>
   <si>
-    <t>Rosa Teixidó Gil</t>
-  </si>
-  <si>
     <t>Rosalia Freixa Aguilella</t>
   </si>
   <si>
@@ -278,9 +230,6 @@
     <t>Rosita Escale Marimon</t>
   </si>
   <si>
-    <t>Rosita Molins Brescó</t>
-  </si>
-  <si>
     <t>Sabina Vallverdu Vilamajo</t>
   </si>
   <si>
@@ -290,9 +239,6 @@
     <t>Teresa Caba Pou</t>
   </si>
   <si>
-    <t>teresa sans vidal</t>
-  </si>
-  <si>
     <t>Teresa Torres Planes</t>
   </si>
   <si>
@@ -300,6 +246,786 @@
   </si>
   <si>
     <t>Ventura Aubach Naves</t>
+  </si>
+  <si>
+    <t>Angeles Mallen Millan</t>
+  </si>
+  <si>
+    <t>Antoni Fallada Gairoles</t>
+  </si>
+  <si>
+    <t>Antoni Garcia Manchon</t>
+  </si>
+  <si>
+    <t>Antoni Pedro Minguella</t>
+  </si>
+  <si>
+    <t>Antonia Sans Coll</t>
+  </si>
+  <si>
+    <t>Antonio Cullere Boladeres</t>
+  </si>
+  <si>
+    <t>Antonio Montalbao Alba</t>
+  </si>
+  <si>
+    <t>Antonio Roset Sans</t>
+  </si>
+  <si>
+    <t>Araceli Franquesa Fabregat</t>
+  </si>
+  <si>
+    <t>Artur Balcells Cortada</t>
+  </si>
+  <si>
+    <t>Assumpcio Lluch Casas</t>
+  </si>
+  <si>
+    <t>Assumpcio Pedros Torres</t>
+  </si>
+  <si>
+    <t>Aurelia Pedros Torres</t>
+  </si>
+  <si>
+    <t>Aurora Aubach Naves</t>
+  </si>
+  <si>
+    <t>Baptista Esque Nadal</t>
+  </si>
+  <si>
+    <t>Bartomeu Franquet Abat</t>
+  </si>
+  <si>
+    <t>Batiste Moya Sans</t>
+  </si>
+  <si>
+    <t>Blasi Quintana Argiles</t>
+  </si>
+  <si>
+    <t>Carme Fuster Lamiel</t>
+  </si>
+  <si>
+    <t>Catalina Pau Verdes</t>
+  </si>
+  <si>
+    <t>Caterina Vidal Mesalles</t>
+  </si>
+  <si>
+    <t>Cecilia Aiguade Valentines</t>
+  </si>
+  <si>
+    <t>Conrad Domenech Rey</t>
+  </si>
+  <si>
+    <t>Delfina Blanch Boreu</t>
+  </si>
+  <si>
+    <t>Dolores Ciurana Argiles</t>
+  </si>
+  <si>
+    <t>Dolores Gabarro Penella</t>
+  </si>
+  <si>
+    <t>Maria Rosa Torres Serret</t>
+  </si>
+  <si>
+    <t>Ramon Ribas Pau</t>
+  </si>
+  <si>
+    <t>Ramon Sans Canela</t>
+  </si>
+  <si>
+    <t>Robert Villanueva Losa</t>
+  </si>
+  <si>
+    <t>Rosa Canela Berga</t>
+  </si>
+  <si>
+    <t>Rosario Segalas Manso</t>
+  </si>
+  <si>
+    <t>Soledad Losa Iglesias</t>
+  </si>
+  <si>
+    <t>Tresina Safont Sans</t>
+  </si>
+  <si>
+    <t>Philippe LAMBERECHTS GENICOT</t>
+  </si>
+  <si>
+    <t>Dolors Aubach Naves</t>
+  </si>
+  <si>
+    <t>Dolors Cabre Balcells</t>
+  </si>
+  <si>
+    <t>Dolors Cullere Argiles</t>
+  </si>
+  <si>
+    <t>Dolors Domingo Robinat</t>
+  </si>
+  <si>
+    <t>Dolors Sans Vidal</t>
+  </si>
+  <si>
+    <t>Dolors Sole Esque</t>
+  </si>
+  <si>
+    <t>Dolors Sumalla Canela</t>
+  </si>
+  <si>
+    <t>Domingo Salat Renye</t>
+  </si>
+  <si>
+    <t>Engracia Esteve Castany</t>
+  </si>
+  <si>
+    <t>Faustino Mendez Losa</t>
+  </si>
+  <si>
+    <t>Felix Balboa Marin</t>
+  </si>
+  <si>
+    <t>Francesc Caussa Turbau</t>
+  </si>
+  <si>
+    <t>Francesc Xavier Domingo Cullere</t>
+  </si>
+  <si>
+    <t>Francesca Ballester Timoneda</t>
+  </si>
+  <si>
+    <t>Francesca Vidal Marti</t>
+  </si>
+  <si>
+    <t>Francisca Poyato Ordonez</t>
+  </si>
+  <si>
+    <t>Francisco Sans Ribes</t>
+  </si>
+  <si>
+    <t>Hortensia Hill Sans</t>
+  </si>
+  <si>
+    <t>Jaume Altisen Coll</t>
+  </si>
+  <si>
+    <t>Jaume Morlans Hill</t>
+  </si>
+  <si>
+    <t>Jaume Perello Teixido</t>
+  </si>
+  <si>
+    <t>Jaume Salat Tarrago</t>
+  </si>
+  <si>
+    <t>Jaume Sans Sans</t>
+  </si>
+  <si>
+    <t>Jaume Sumalla Queralt</t>
+  </si>
+  <si>
+    <t>Jesua Gonzalez</t>
+  </si>
+  <si>
+    <t>Joan Ricart Arnal</t>
+  </si>
+  <si>
+    <t>Joaneta Sumalla Canela</t>
+  </si>
+  <si>
+    <t>Josefa Bofarull Safont</t>
+  </si>
+  <si>
+    <t>Josep Alcantara Arellano</t>
+  </si>
+  <si>
+    <t>Josep Arbos Nadal</t>
+  </si>
+  <si>
+    <t>Josep Argiles Moya</t>
+  </si>
+  <si>
+    <t>Josep Aubach Naves</t>
+  </si>
+  <si>
+    <t>Josep Cabrol Moya</t>
+  </si>
+  <si>
+    <t>Josep Ciurana Tillo</t>
+  </si>
+  <si>
+    <t>Josep Fallada Vidal</t>
+  </si>
+  <si>
+    <t>Josep Maria Dalmau Tasies</t>
+  </si>
+  <si>
+    <t>Josep Maria Gaya Roset</t>
+  </si>
+  <si>
+    <t>Josep Maria Moya Sans</t>
+  </si>
+  <si>
+    <t>Josep Maria Naves Bellmunt</t>
+  </si>
+  <si>
+    <t>Josep Maria Perera Sans</t>
+  </si>
+  <si>
+    <t>Josep Mayoral Baro</t>
+  </si>
+  <si>
+    <t>Josep Miret Bellmunt</t>
+  </si>
+  <si>
+    <t>Josep Nadal Duch</t>
+  </si>
+  <si>
+    <t>Josep Navarro Garcia</t>
+  </si>
+  <si>
+    <t>Josep Pelegrí Balleste</t>
+  </si>
+  <si>
+    <t>Josep Perello Sanfeliu</t>
+  </si>
+  <si>
+    <t>Josep Ros Moya</t>
+  </si>
+  <si>
+    <t>Josep Roset Esque</t>
+  </si>
+  <si>
+    <t>Josep Sans Ingles</t>
+  </si>
+  <si>
+    <t>Josep Sans Sumalla</t>
+  </si>
+  <si>
+    <t>Josep Sumalla Pau</t>
+  </si>
+  <si>
+    <t>Josep Vidal Bardia</t>
+  </si>
+  <si>
+    <t>Llorens Rubio Guillaumet</t>
+  </si>
+  <si>
+    <t>Lorena Hernandez Gomez de Rosas</t>
+  </si>
+  <si>
+    <t>Manuel Gras Vidal</t>
+  </si>
+  <si>
+    <t>Manuel Vall Sans</t>
+  </si>
+  <si>
+    <t>Marcelina Pinos Casado</t>
+  </si>
+  <si>
+    <t>Maria Antonia Argiles Cullere</t>
+  </si>
+  <si>
+    <t>Maria Aubach Naves</t>
+  </si>
+  <si>
+    <t>Maria Balcells Cabrol</t>
+  </si>
+  <si>
+    <t>Maria del Mar Domingo Cots</t>
+  </si>
+  <si>
+    <t>Maria Dolors Esque Duch</t>
+  </si>
+  <si>
+    <t>Maria Gine Queralto</t>
+  </si>
+  <si>
+    <t>Maria Pedros Balague</t>
+  </si>
+  <si>
+    <t>Maria Salat Ribes</t>
+  </si>
+  <si>
+    <t>Maria Sans Roset</t>
+  </si>
+  <si>
+    <t>Maria Solsona Agreda</t>
+  </si>
+  <si>
+    <t>Mariana Duch Perera</t>
+  </si>
+  <si>
+    <t>Marisol Vidal Orrit</t>
+  </si>
+  <si>
+    <t>Miquel Sans Boldu</t>
+  </si>
+  <si>
+    <t>Noemi Rodriguez Tudela</t>
+  </si>
+  <si>
+    <t>Nuria Teixido Clavijo</t>
+  </si>
+  <si>
+    <t>Pepita Sanchez Valdivia</t>
+  </si>
+  <si>
+    <t>Pere Calafell Gibert</t>
+  </si>
+  <si>
+    <t>Pere Ribau Pinol</t>
+  </si>
+  <si>
+    <t>Pere Vidal Gelonch</t>
+  </si>
+  <si>
+    <t>Rafael Troyano Santiago</t>
+  </si>
+  <si>
+    <t>Raimunda Aldoma Ribera</t>
+  </si>
+  <si>
+    <t>Raimunda Sumalla Queralt</t>
+  </si>
+  <si>
+    <t>Ramon Bosch Vidal</t>
+  </si>
+  <si>
+    <t>Ramon Canela Timoneda</t>
+  </si>
+  <si>
+    <t>Ramon Jovellar Santamaria</t>
+  </si>
+  <si>
+    <t>Ramon Monfa Vidal</t>
+  </si>
+  <si>
+    <t>Ramon Moya Sans</t>
+  </si>
+  <si>
+    <t>Ramon Perera Sans</t>
+  </si>
+  <si>
+    <t>Ramon Sans Cabestany</t>
+  </si>
+  <si>
+    <t>Ramon Sans Gaba</t>
+  </si>
+  <si>
+    <t>Ramon Sans Ribera</t>
+  </si>
+  <si>
+    <t>Ramon Vidal Camins</t>
+  </si>
+  <si>
+    <t>Ramon Vidal Sans</t>
+  </si>
+  <si>
+    <t>Ramona Canela Aldoma</t>
+  </si>
+  <si>
+    <t>Ramona Perera Bosch</t>
+  </si>
+  <si>
+    <t>Ramona Vives Sans</t>
+  </si>
+  <si>
+    <t>Ricard Peris Sans</t>
+  </si>
+  <si>
+    <t>Roman Vidal Camins</t>
+  </si>
+  <si>
+    <t>Rosa Aldoma Elias</t>
+  </si>
+  <si>
+    <t>Rosa Bofarull Safont</t>
+  </si>
+  <si>
+    <t>Rosa Cabrol Moya</t>
+  </si>
+  <si>
+    <t>Rosa Cullere Serret</t>
+  </si>
+  <si>
+    <t>Rosa Munne Magrinya</t>
+  </si>
+  <si>
+    <t>Rosa Ribes Balague</t>
+  </si>
+  <si>
+    <t>Rosa Teixido Gil</t>
+  </si>
+  <si>
+    <t>Rosalia Marimon Farre</t>
+  </si>
+  <si>
+    <t>Rosari Duch Cabrol</t>
+  </si>
+  <si>
+    <t>Sebastia Gaya Gaya</t>
+  </si>
+  <si>
+    <t>Susente Aubach Naves</t>
+  </si>
+  <si>
+    <t>Tecla Mesalles</t>
+  </si>
+  <si>
+    <t>Teresa Argiles Moya</t>
+  </si>
+  <si>
+    <t>Teresa Arrufat Canela</t>
+  </si>
+  <si>
+    <t>Teresa Esque Canela</t>
+  </si>
+  <si>
+    <t>Teresa Moya Camins</t>
+  </si>
+  <si>
+    <t>Teresa Sans Vidal</t>
+  </si>
+  <si>
+    <t>Vanesa Sanchez</t>
+  </si>
+  <si>
+    <t>Veronique Ruthy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enric Aldoma Balasch  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Josep Mir Carrera  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maite Tapies Martí  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manolita Saura Sio  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Pujades Pallerola  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maria Renye Fabregat  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merce Pons Palou  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ramon Nabau Pallerola  </t>
+  </si>
+  <si>
+    <t>Teresa Salat Bofarull</t>
+  </si>
+  <si>
+    <t>Alfons Salse Rosal</t>
+  </si>
+  <si>
+    <t>Alicia Gonzalez Colladao</t>
+  </si>
+  <si>
+    <t>Antoni Trepat Ricart</t>
+  </si>
+  <si>
+    <t>Antonia Closa Viella</t>
+  </si>
+  <si>
+    <t>Aurelia Balague Pou</t>
+  </si>
+  <si>
+    <t>Carles Mestre Gomez</t>
+  </si>
+  <si>
+    <t>Carme Pou Cabestany</t>
+  </si>
+  <si>
+    <t>Carmen Fontanet Cava</t>
+  </si>
+  <si>
+    <t>Conxita Talam Camarasa</t>
+  </si>
+  <si>
+    <t>Daniel Roig Palou</t>
+  </si>
+  <si>
+    <t>Dolores Pines Gallego</t>
+  </si>
+  <si>
+    <t>Dolors Castello Cornella</t>
+  </si>
+  <si>
+    <t>Emma Sola Munera</t>
+  </si>
+  <si>
+    <t>Enric Cosp de San Nicolas</t>
+  </si>
+  <si>
+    <t>Federico Garcia Ortega</t>
+  </si>
+  <si>
+    <t>Francisco Moya Sans</t>
+  </si>
+  <si>
+    <t>Francisco Ramallo Gonzalez</t>
+  </si>
+  <si>
+    <t>Francisco Solsona Gine</t>
+  </si>
+  <si>
+    <t>Gaspar Gine Pane</t>
+  </si>
+  <si>
+    <t>Ines Vilamajo Capdevila</t>
+  </si>
+  <si>
+    <t>Iris Cayuela Monroy</t>
+  </si>
+  <si>
+    <t>Isabel Fabrega Porta</t>
+  </si>
+  <si>
+    <t>Isabel Valles Camps</t>
+  </si>
+  <si>
+    <t>Jaume Esque Torrent</t>
+  </si>
+  <si>
+    <t>Joan Maragall Comes</t>
+  </si>
+  <si>
+    <t>Joan Mas Mirada</t>
+  </si>
+  <si>
+    <t>Jose Sobrino Gutierrez</t>
+  </si>
+  <si>
+    <t>Josep Coma Tellez</t>
+  </si>
+  <si>
+    <t>Josep Escale Sumalla</t>
+  </si>
+  <si>
+    <t>Josep Maria Fabregat Niubo</t>
+  </si>
+  <si>
+    <t>Josep Maria Mas Gras</t>
+  </si>
+  <si>
+    <t>Josep Maria Mas Pedra</t>
+  </si>
+  <si>
+    <t>Josep Marti Catala</t>
+  </si>
+  <si>
+    <t>Josep Moset Gasull</t>
+  </si>
+  <si>
+    <t>Juan Antonio Armario Gamero</t>
+  </si>
+  <si>
+    <t>Juan Chavero Monterros</t>
+  </si>
+  <si>
+    <t>Lola Fabregat Escriba</t>
+  </si>
+  <si>
+    <t>Magdalena Gine Padulles</t>
+  </si>
+  <si>
+    <t>Marcelino Fontanet Sola</t>
+  </si>
+  <si>
+    <t>Margarita Escoda Falco</t>
+  </si>
+  <si>
+    <t>Maria Avielo Ortega</t>
+  </si>
+  <si>
+    <t>Maria Balcells Ardevol</t>
+  </si>
+  <si>
+    <t>Maria Cascallo Sole</t>
+  </si>
+  <si>
+    <t>Maria Concepcio Pasqual Bonjorn</t>
+  </si>
+  <si>
+    <t>Maria Puigfel Caba</t>
+  </si>
+  <si>
+    <t>Maria Salse Rosal</t>
+  </si>
+  <si>
+    <t>Monserrat Mas Vilaplana</t>
+  </si>
+  <si>
+    <t>Paula Ahuarco Crespo</t>
+  </si>
+  <si>
+    <t>Pepita Rene Bergada</t>
+  </si>
+  <si>
+    <t>Pilar Mas Oliva</t>
+  </si>
+  <si>
+    <t>Pilar Vilamajo Pallas</t>
+  </si>
+  <si>
+    <t>Ramon Pallerola Monfort</t>
+  </si>
+  <si>
+    <t>Ramon Vendrell Vendrell</t>
+  </si>
+  <si>
+    <t>Rosa Tacies Cunat</t>
+  </si>
+  <si>
+    <t>Rosenda Farre Marti</t>
+  </si>
+  <si>
+    <t>Sisco Soldevila Foix</t>
+  </si>
+  <si>
+    <t>Tere Arce Gonzalez</t>
+  </si>
+  <si>
+    <t>Teresa Bonjorn Sanfeliu</t>
+  </si>
+  <si>
+    <t>Teresa Puig Montane</t>
+  </si>
+  <si>
+    <t>Fe Buenadicha Matesanz</t>
+  </si>
+  <si>
+    <t>Francisca Alfaro Tarrega</t>
+  </si>
+  <si>
+    <t>Jacinta Burgues Camarasa</t>
+  </si>
+  <si>
+    <t>Joan Fusta Casanovas</t>
+  </si>
+  <si>
+    <t>Joaquim Baulo Piera</t>
+  </si>
+  <si>
+    <t>Maria Riera Marti</t>
+  </si>
+  <si>
+    <t>Ramon Pedros Jove</t>
+  </si>
+  <si>
+    <t>Agusti Escale Cinca</t>
+  </si>
+  <si>
+    <t>Albert Moya Martinez</t>
+  </si>
+  <si>
+    <t>Albert Sans Comenge</t>
+  </si>
+  <si>
+    <t>Alfons Cabedo Bartomeu</t>
+  </si>
+  <si>
+    <t>Amadeu Gras Vidal</t>
+  </si>
+  <si>
+    <t>Antoni Medina Panuela</t>
+  </si>
+  <si>
+    <t>Antoniéta Sumalla Canela</t>
+  </si>
+  <si>
+    <t>Antonio Aguilla Sierra</t>
+  </si>
+  <si>
+    <t>Carles Quintana Masdeu</t>
+  </si>
+  <si>
+    <t>Concepcio Baget Ramon</t>
+  </si>
+  <si>
+    <t>Dolors Cots Safont</t>
+  </si>
+  <si>
+    <t>Francesc Balcells Fabregat</t>
+  </si>
+  <si>
+    <t>Francesc Duart Loberals</t>
+  </si>
+  <si>
+    <t>Francesc Moya Cami</t>
+  </si>
+  <si>
+    <t>Francesc Sans Pedrol</t>
+  </si>
+  <si>
+    <t>Jaume Botigue Amoros</t>
+  </si>
+  <si>
+    <t>Joan Huguet Torrents</t>
+  </si>
+  <si>
+    <t>Joan Moya Sumalla CAT</t>
+  </si>
+  <si>
+    <t>Joan Moya Sumalla FR</t>
+  </si>
+  <si>
+    <t>Josep Balleste Capdevila</t>
+  </si>
+  <si>
+    <t>Josep Capdevila Casanoves</t>
+  </si>
+  <si>
+    <t>Josep Gesse Ros</t>
+  </si>
+  <si>
+    <t>Josep Grimau Farreg</t>
+  </si>
+  <si>
+    <t>Josep Pau Balcells</t>
+  </si>
+  <si>
+    <t>Josepa Balcells Sumalla</t>
+  </si>
+  <si>
+    <t>Lasar Vidal Balague</t>
+  </si>
+  <si>
+    <t>Llorenç Poc Sans</t>
+  </si>
+  <si>
+    <t>Maria Torres Serret</t>
+  </si>
+  <si>
+    <t>Maria Torrelles Teixido</t>
+  </si>
+  <si>
+    <t>Maria Vidal Amoros</t>
+  </si>
+  <si>
+    <t>Maria Vidal Marimon</t>
+  </si>
+  <si>
+    <t>Martine</t>
+  </si>
+  <si>
+    <t>Miquel Gesse Miranda</t>
+  </si>
+  <si>
+    <t>Miquel Vidal Gaya</t>
+  </si>
+  <si>
+    <t>Montserrat Moragues Morull</t>
+  </si>
+  <si>
+    <t>Rosita Molins Bresco</t>
   </si>
 </sst>
 </file>
@@ -660,10 +1386,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AE4F520-E09F-430E-B908-E791AB5E9652}">
-  <dimension ref="A1:D85"/>
+  <dimension ref="A1:D327"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A85"/>
+    <sheetView tabSelected="1" topLeftCell="A301" workbookViewId="0">
+      <selection activeCell="C332" sqref="C332"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -690,425 +1416,1638 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>294</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>295</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>296</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>297</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>16</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>17</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>21</v>
+        <v>231</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>22</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>23</v>
+        <v>74</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>300</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>26</v>
+        <v>301</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>30</v>
+        <v>77</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>31</v>
+        <v>78</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>32</v>
+        <v>79</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>33</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>34</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>11</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>36</v>
+        <v>232</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>37</v>
+        <v>82</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>39</v>
+        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>40</v>
+        <v>85</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>41</v>
+        <v>86</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>42</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>43</v>
+        <v>13</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>45</v>
+        <v>233</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>46</v>
+        <v>14</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>47</v>
+        <v>302</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>48</v>
+        <v>15</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>49</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>50</v>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>51</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>52</v>
+        <v>234</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>53</v>
+        <v>235</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>54</v>
+        <v>89</v>
       </c>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>55</v>
+        <v>90</v>
       </c>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>56</v>
+        <v>91</v>
       </c>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>57</v>
+        <v>303</v>
       </c>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>58</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>59</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>60</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
     </row>
     <row r="60" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
     </row>
     <row r="61" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>63</v>
+        <v>95</v>
       </c>
     </row>
     <row r="62" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>64</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>65</v>
+        <v>105</v>
       </c>
     </row>
     <row r="64" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>66</v>
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>67</v>
+        <v>239</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>68</v>
+        <v>304</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>69</v>
+        <v>107</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>70</v>
+        <v>108</v>
       </c>
     </row>
     <row r="69" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>72</v>
+        <v>110</v>
       </c>
     </row>
     <row r="71" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>73</v>
+        <v>111</v>
       </c>
     </row>
     <row r="72" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
     <row r="73" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>75</v>
+        <v>18</v>
       </c>
     </row>
     <row r="74" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>76</v>
+        <v>240</v>
       </c>
     </row>
     <row r="75" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>77</v>
+        <v>19</v>
       </c>
     </row>
     <row r="76" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>78</v>
+        <v>113</v>
       </c>
     </row>
     <row r="77" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>79</v>
+        <v>20</v>
       </c>
     </row>
     <row r="78" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>80</v>
+        <v>219</v>
       </c>
     </row>
     <row r="79" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>81</v>
+        <v>241</v>
       </c>
     </row>
     <row r="80" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>82</v>
+        <v>21</v>
       </c>
     </row>
     <row r="81" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>83</v>
+        <v>114</v>
       </c>
     </row>
     <row r="82" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>84</v>
+        <v>287</v>
       </c>
     </row>
     <row r="83" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>85</v>
+        <v>242</v>
       </c>
     </row>
     <row r="84" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>86</v>
+        <v>115</v>
       </c>
     </row>
     <row r="85" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>87</v>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="108" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="110" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="111" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="133" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="136" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="144" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="146" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="243" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="259" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="263" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="272" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="294" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="308" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A319" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A320" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A321" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A323" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" t="s">
+        <v>218</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A370">
+    <sortCondition ref="A370"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
